--- a/tabels.xlsx
+++ b/tabels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Documents\Técnico\CRC\Projeto\Workspace\CRC2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427C9755-0D0E-455E-B167-F54F1C59763D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11235224-BBE5-4D23-AED9-FC4A4DC5B493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13224" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -947,7 +947,7 @@
   <dimension ref="B2:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
